--- a/Doc/Ming需求列表.xlsx
+++ b/Doc/Ming需求列表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10596\Desktop\硕士毕设\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kangruilin\Documents\Project\Ming\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74FDEF7-ECBC-4D2E-8ED3-C22FA3A56CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29B4C0E-9623-400E-9C19-E41694BA6C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18945" yWindow="1275" windowWidth="38700" windowHeight="18285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>需求编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -61,133 +61,162 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>类别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴图</t>
+  </si>
+  <si>
+    <t>贴图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>着色器</t>
+  </si>
+  <si>
+    <t>着色器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹弓</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配装台</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具放置位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰带</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹命中（墙壁）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹命中（怪物）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹轨迹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉弹弓</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>走路</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程标题场景</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗场景</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件场景</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss场景</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电链</t>
+  </si>
+  <si>
+    <t>爆炸</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型</t>
-  </si>
-  <si>
-    <t>模型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴图</t>
-  </si>
-  <si>
-    <t>贴图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效</t>
-  </si>
-  <si>
-    <t>特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>着色器</t>
-  </si>
-  <si>
-    <t>着色器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效</t>
-  </si>
-  <si>
-    <t>音效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹弓</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>配装台</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具放置位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>腰带</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹命中（墙壁）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹命中（怪物）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹轨迹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉弹弓</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>射击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>走路</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>教程标题场景</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗场景</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件场景</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss场景</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMP 字体</t>
+  </si>
+  <si>
+    <t>道具卡牌模型</t>
+  </si>
+  <si>
+    <t>Ruby</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -196,7 +225,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -204,14 +233,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -220,7 +249,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -265,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,12 +304,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="解释性文本" xfId="2" builtinId="53"/>
-    <cellStyle name="着色 1" xfId="3" builtinId="29"/>
+    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -558,22 +593,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="28.375" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="28.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -586,31 +622,44 @@
       <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E1" s="5"/>
       <c r="J1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="28.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -619,318 +668,379 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="28.5" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="28.5" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="28.5" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="28.5" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="28.5" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="28.5" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="28.5" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="28.5" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="28.5" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="28.5" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="28.5" customHeight="1">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="28.5" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="28.5" customHeight="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="28.5" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" customHeight="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.5" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.5" customHeight="1">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.5" customHeight="1">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.5" customHeight="1">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.5" customHeight="1">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.5" customHeight="1">
       <c r="A23" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="28.5" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="28.5" customHeight="1">
       <c r="A25" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="28.5" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="28.5" customHeight="1">
       <c r="A27" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="28.5" customHeight="1">
       <c r="A28" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:5" ht="28.5" customHeight="1"/>
+    <row r="30" spans="1:5" ht="28.5" customHeight="1"/>
+    <row r="31" spans="1:5" ht="28.5" customHeight="1"/>
+    <row r="32" spans="1:5" ht="28.5" customHeight="1"/>
+    <row r="33" ht="28.5" customHeight="1"/>
+    <row r="34" ht="28.5" customHeight="1"/>
+    <row r="35" ht="28.5" customHeight="1"/>
+    <row r="36" ht="28.5" customHeight="1"/>
+    <row r="37" ht="28.5" customHeight="1"/>
+    <row r="38" ht="28.5" customHeight="1"/>
+    <row r="39" ht="28.5" customHeight="1"/>
+    <row r="40" ht="28.5" customHeight="1"/>
+    <row r="41" ht="28.5" customHeight="1"/>
+    <row r="42" ht="28.5" customHeight="1"/>
+    <row r="43" ht="28.5" customHeight="1"/>
+    <row r="44" ht="28.5" customHeight="1"/>
+    <row r="45" ht="28.5" customHeight="1"/>
+    <row r="46" ht="28.5" customHeight="1"/>
+    <row r="47" ht="28.5" customHeight="1"/>
+    <row r="48" ht="28.5" customHeight="1"/>
+    <row r="49" ht="28.5" customHeight="1"/>
+    <row r="50" ht="28.5" customHeight="1"/>
+    <row r="51" ht="28.5" customHeight="1"/>
+    <row r="52" ht="28.5" customHeight="1"/>
+    <row r="53" ht="28.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D20 C19:C1048576" xr:uid="{DF3BC023-E9BD-4446-BBCC-6555448AFF1E}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D22" xr:uid="{DF3BC023-E9BD-4446-BBCC-6555448AFF1E}">
       <formula1>$A$1:$D$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{7F314DB6-7735-4488-A2B2-61F582DF74D0}">
       <formula1>$J$1:$P$1</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{5E9E7D03-A5B5-4D87-85C4-1476E0B56A4B}">
+      <formula1>$R$1:$U$1</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>